--- a/Data/VITL time series.xlsx
+++ b/Data/VITL time series.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHENY\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHENY\Documents\GitHub\Case-study\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE6025C-5100-4894-A843-2E37572E922A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F2CB1D-668A-4BE2-9929-E382E57736FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="1305" windowWidth="16170" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="1740" windowWidth="20280" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Quarter End Date</t>
   </si>
@@ -37,6 +48,27 @@
   </si>
   <si>
     <t>Household Awareness</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>Average Hens Number</t>
+  </si>
+  <si>
+    <t>Total Dozens of Eggs Produced</t>
+  </si>
+  <si>
+    <t>Egg &amp; Product Net Revenue</t>
+  </si>
+  <si>
+    <t>ASP Proxy</t>
+  </si>
+  <si>
+    <t>HDP</t>
+  </si>
+  <si>
+    <t>Days</t>
   </si>
 </sst>
 </file>
@@ -355,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -367,9 +399,14 @@
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -382,10 +419,25 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45876</v>
+        <v>45837</v>
       </c>
       <c r="B2">
         <v>9</v>
@@ -395,6 +447,98 @@
       </c>
       <c r="D2">
         <v>0.31</v>
+      </c>
+      <c r="E2">
+        <f>(B2+B3)/2</f>
+        <v>8.6</v>
+      </c>
+      <c r="F2">
+        <f>_xlfn.DAYS(A2,A3)</f>
+        <v>91</v>
+      </c>
+      <c r="G2">
+        <f>E2*F2*$K$8/12</f>
+        <v>46.955999999999996</v>
+      </c>
+      <c r="H2">
+        <v>178.41800000000001</v>
+      </c>
+      <c r="I2">
+        <f>H2/G2</f>
+        <v>3.7996848113127188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45746</v>
+      </c>
+      <c r="B3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C3">
+        <v>450</v>
+      </c>
+      <c r="D3">
+        <v>0.31</v>
+      </c>
+      <c r="E3">
+        <f>(B3+B4)/2</f>
+        <v>7.9499999999999993</v>
+      </c>
+      <c r="F3">
+        <f>_xlfn.DAYS(A3,A4)</f>
+        <v>91</v>
+      </c>
+      <c r="G3">
+        <f>E3*F3*$K$8/12</f>
+        <v>43.406999999999989</v>
+      </c>
+      <c r="H3">
+        <v>156.30500000000001</v>
+      </c>
+      <c r="I3">
+        <f>H3/G3</f>
+        <v>3.6009169028036965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45655</v>
+      </c>
+      <c r="B4">
+        <v>7.7</v>
+      </c>
+      <c r="C4">
+        <v>425</v>
+      </c>
+      <c r="D4">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45603</v>
+      </c>
+      <c r="C5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>
